--- a/store/user_list.xlsx
+++ b/store/user_list.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="70">
   <si>
     <t>서버접근제어 사용자 계정 목록</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -285,10 +285,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>64F82268D9C49544B979144D7D4A40EC</t>
-  </si>
-  <si>
     <t>cbb74d180164492b8b8e1601b764a018</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KM11050</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2353,10 +2354,13 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
@@ -2374,7 +2378,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>11</v>
@@ -2588,7 +2592,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2597,13 +2603,11 @@
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>68</v>
-      </c>
+      <c r="A2" s="14"/>
     </row>
     <row r="3" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
